--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
@@ -670,16 +670,16 @@
         <v>3.35</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I2" t="n">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="J2" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="K2" t="n">
         <v>3.55</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q2" t="n">
         <v>2.06</v>
@@ -805,7 +805,7 @@
         <v>1.65</v>
       </c>
       <c r="G3" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
         <v>5.7</v>
@@ -817,7 +817,7 @@
         <v>3.8</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>1.72</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G2" t="n">
         <v>4.3</v>
@@ -679,7 +679,7 @@
         <v>2.76</v>
       </c>
       <c r="J2" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>3.55</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="H3" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J3" t="n">
         <v>3.8</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
         <v>1.01</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="Q5" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>FIFA World Cup Qualifiers - Asia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.3</v>
+        <v>6.4</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3</v>
+        <v>7.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.26</v>
+        <v>1.65</v>
       </c>
       <c r="I2" t="n">
-        <v>2.76</v>
+        <v>1.73</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>FIFA World Cup Qualifiers - Asia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>14:15:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.63</v>
+        <v>7.8</v>
       </c>
       <c r="G3" t="n">
-        <v>1.69</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>1.49</v>
       </c>
       <c r="I3" t="n">
-        <v>7.4</v>
+        <v>1.55</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P3" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1048,135 +1048,405 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Atletico MG</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Brazilian Serie B</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>2025-10-08</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>19:00:00</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Operario PR</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Cuiaba</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Novorizontino</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q7" t="n">
         <v>1.01</v>
       </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
@@ -691,7 +691,7 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -700,7 +700,7 @@
         <v>1.62</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R2" t="n">
         <v>1.22</v>
@@ -760,7 +760,7 @@
         <v>320</v>
       </c>
       <c r="AK2" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AL2" t="n">
         <v>180</v>
@@ -802,37 +802,37 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H3" t="n">
         <v>1.49</v>
       </c>
       <c r="I3" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.38</v>
       </c>
       <c r="P3" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q3" t="n">
         <v>2.12</v>
@@ -856,7 +856,7 @@
         <v>1.09</v>
       </c>
       <c r="X3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
         <v>6.6</v>
@@ -865,7 +865,7 @@
         <v>8</v>
       </c>
       <c r="AA3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB3" t="n">
         <v>24</v>
@@ -880,7 +880,7 @@
         <v>19.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
         <v>36</v>
@@ -895,10 +895,10 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AL3" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -940,109 +940,109 @@
         <v>3.3</v>
       </c>
       <c r="G4" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
         <v>2.22</v>
       </c>
       <c r="I4" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J4" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
         <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
         <v>7.2</v>
@@ -1087,97 +1087,97 @@
         <v>3.7</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q5" t="n">
         <v>2.18</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="Q6" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.01</v>
       </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Operario PR</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P7" t="n">
         <v>1.25</v>
       </c>
       <c r="Q7" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.01</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
@@ -667,70 +667,70 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G2" t="n">
         <v>6.4</v>
       </c>
-      <c r="G2" t="n">
-        <v>7.8</v>
-      </c>
       <c r="H2" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="I2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P2" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R2" t="n">
         <v>1.22</v>
       </c>
       <c r="S2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T2" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="U2" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="V2" t="n">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="W2" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA2" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AB2" t="n">
         <v>18.5</v>
@@ -739,16 +739,16 @@
         <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -757,22 +757,22 @@
         <v>60</v>
       </c>
       <c r="AJ2" t="n">
-        <v>320</v>
+        <v>210</v>
       </c>
       <c r="AK2" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AL2" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="AM2" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="G3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="I3" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O3" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R3" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T3" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="V3" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="W3" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>180</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>170</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO3" t="n">
         <v>14</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>95</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>220</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -940,13 +940,13 @@
         <v>3.3</v>
       </c>
       <c r="G4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I4" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J4" t="n">
         <v>3.15</v>
@@ -955,13 +955,13 @@
         <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.39</v>
@@ -970,79 +970,79 @@
         <v>1.72</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T4" t="n">
         <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V4" t="n">
         <v>1.66</v>
       </c>
       <c r="W4" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO4" t="n">
         <v>26</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1075,7 +1075,7 @@
         <v>1.63</v>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="H5" t="n">
         <v>7.2</v>
@@ -1084,16 +1084,16 @@
         <v>7.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
         <v>3.15</v>
@@ -1114,70 +1114,70 @@
         <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
         <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="X5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
         <v>19.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
         <v>28</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
         <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="n">
         <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6">
@@ -1207,103 +1207,103 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="G6" t="n">
-        <v>2.74</v>
+        <v>2.48</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.36</v>
+        <v>2.92</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="L6" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.61</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P6" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="R6" t="n">
         <v>1.17</v>
       </c>
       <c r="S6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="W6" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF6" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1342,109 +1342,109 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="G7" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="I7" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.56</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.56</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="O7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P7" t="n">
         <v>1.51</v>
       </c>
-      <c r="P7" t="n">
-        <v>1.25</v>
-      </c>
       <c r="Q7" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W7" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y7" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="AC7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ7" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="I2" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="J2" t="n">
         <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
         <v>1.49</v>
@@ -691,58 +691,58 @@
         <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="O2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T2" t="n">
         <v>2.16</v>
       </c>
       <c r="U2" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V2" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="W2" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="X2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>55</v>
@@ -751,28 +751,28 @@
         <v>24</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AK2" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AL2" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AM2" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>1.54</v>
       </c>
       <c r="I3" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="J3" t="n">
         <v>4.1</v>
@@ -826,67 +826,67 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P3" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="R3" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U3" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="V3" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="W3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="X3" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
         <v>7.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA3" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AC3" t="n">
         <v>11.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>980</v>
@@ -895,13 +895,13 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL3" t="n">
         <v>180</v>
       </c>
-      <c r="AL3" t="n">
-        <v>170</v>
-      </c>
       <c r="AM3" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AN3" t="n">
         <v>1000</v>
@@ -943,7 +943,7 @@
         <v>4.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I4" t="n">
         <v>2.5</v>
@@ -952,7 +952,7 @@
         <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L4" t="n">
         <v>1.45</v>
@@ -967,22 +967,22 @@
         <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R4" t="n">
         <v>1.28</v>
       </c>
       <c r="S4" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T4" t="n">
         <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V4" t="n">
         <v>1.66</v>
@@ -1000,7 +1000,7 @@
         <v>17</v>
       </c>
       <c r="AA4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
         <v>14.5</v>
@@ -1015,7 +1015,7 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
         <v>18</v>
@@ -1075,7 +1075,7 @@
         <v>1.63</v>
       </c>
       <c r="G5" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="H5" t="n">
         <v>7.2</v>
@@ -1123,7 +1123,7 @@
         <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="X5" t="n">
         <v>12</v>
@@ -1216,7 +1216,7 @@
         <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J6" t="n">
         <v>2.92</v>
@@ -1252,7 +1252,7 @@
         <v>2.24</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V6" t="n">
         <v>1.31</v>
@@ -1267,7 +1267,7 @@
         <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1279,7 +1279,7 @@
         <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
         <v>90</v>
@@ -1291,16 +1291,16 @@
         <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
         <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AL6" t="n">
         <v>90</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
         <v>3.5</v>
@@ -1387,10 +1387,10 @@
         <v>2.28</v>
       </c>
       <c r="U7" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="V7" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W7" t="n">
         <v>2</v>
@@ -1402,7 +1402,7 @@
         <v>14.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AA7" t="n">
         <v>200</v>
@@ -1414,7 +1414,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1426,28 +1426,568 @@
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AI7" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ7" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
         <v>70</v>
       </c>
       <c r="AM7" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AN7" t="n">
         <v>23</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Avai</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Volta Redonda</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="X9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>America MG</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>US MLS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>23:30:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Toronto FC</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="X11" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
@@ -670,19 +670,19 @@
         <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="I2" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="J2" t="n">
         <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.49</v>
@@ -691,19 +691,19 @@
         <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S2" t="n">
         <v>4.5</v>
@@ -712,13 +712,13 @@
         <v>2.16</v>
       </c>
       <c r="U2" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="V2" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="W2" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
@@ -727,16 +727,16 @@
         <v>6.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
         <v>11</v>
@@ -751,7 +751,7 @@
         <v>24</v>
       </c>
       <c r="AH2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI2" t="n">
         <v>55</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="G3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
         <v>1.54</v>
       </c>
       <c r="I3" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="J3" t="n">
         <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.45</v>
@@ -832,10 +832,10 @@
         <v>1.39</v>
       </c>
       <c r="P3" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="R3" t="n">
         <v>1.28</v>
@@ -844,25 +844,25 @@
         <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U3" t="n">
         <v>1.71</v>
       </c>
       <c r="V3" t="n">
-        <v>2.34</v>
+        <v>2.66</v>
       </c>
       <c r="W3" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AA3" t="n">
         <v>17.5</v>
@@ -874,10 +874,10 @@
         <v>11.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -892,7 +892,7 @@
         <v>980</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AK3" t="n">
         <v>200</v>
@@ -940,13 +940,13 @@
         <v>3.3</v>
       </c>
       <c r="G4" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="H4" t="n">
         <v>2.22</v>
       </c>
       <c r="I4" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J4" t="n">
         <v>3.15</v>
@@ -958,10 +958,10 @@
         <v>1.45</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="n">
         <v>1.39</v>
@@ -976,55 +976,55 @@
         <v>1.28</v>
       </c>
       <c r="S4" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U4" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X4" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>140</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO4" t="n">
         <v>26</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G5" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I5" t="n">
         <v>7.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7.4</v>
       </c>
       <c r="J5" t="n">
         <v>3.85</v>
@@ -1120,10 +1120,10 @@
         <v>1.73</v>
       </c>
       <c r="V5" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X5" t="n">
         <v>12</v>
@@ -1144,7 +1144,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
         <v>130</v>
@@ -1168,16 +1168,16 @@
         <v>20</v>
       </c>
       <c r="AL5" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM5" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6">
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G6" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="K6" t="n">
         <v>3.2</v>
@@ -1228,55 +1228,55 @@
         <v>1.63</v>
       </c>
       <c r="M6" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="P6" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="R6" t="n">
         <v>1.17</v>
       </c>
       <c r="S6" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T6" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U6" t="n">
         <v>1.69</v>
       </c>
       <c r="V6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W6" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X6" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
         <v>980</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>34</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
         <v>22</v>
@@ -1291,22 +1291,22 @@
         <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
         <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
         <v>90</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AN6" t="n">
         <v>1000</v>
@@ -1345,16 +1345,16 @@
         <v>1.87</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>3.5</v>
@@ -1363,7 +1363,7 @@
         <v>1.56</v>
       </c>
       <c r="M7" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
         <v>2.6</v>
@@ -1372,34 +1372,34 @@
         <v>1.54</v>
       </c>
       <c r="P7" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S7" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T7" t="n">
         <v>2.28</v>
       </c>
       <c r="U7" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V7" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W7" t="n">
         <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z7" t="n">
         <v>42</v>
@@ -1408,10 +1408,10 @@
         <v>200</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
         <v>25</v>
@@ -1420,10 +1420,10 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
         <v>30</v>
@@ -1486,10 +1486,10 @@
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
         <v>3.3</v>
@@ -1504,7 +1504,7 @@
         <v>2.82</v>
       </c>
       <c r="O8" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="P8" t="n">
         <v>1.63</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I9" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K9" t="n">
         <v>4.2</v>
@@ -1633,7 +1633,7 @@
         <v>1.43</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
         <v>3.3</v>
@@ -1642,34 +1642,34 @@
         <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q9" t="n">
         <v>2.06</v>
       </c>
       <c r="R9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V9" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W9" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z9" t="n">
         <v>48</v>
@@ -1678,22 +1678,22 @@
         <v>190</v>
       </c>
       <c r="AB9" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC9" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
         <v>110</v>
       </c>
       <c r="AF9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG9" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11</v>
       </c>
       <c r="AH9" t="n">
         <v>25</v>
@@ -1702,19 +1702,19 @@
         <v>120</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK9" t="n">
         <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
         <v>190</v>
       </c>
       <c r="AN9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
         <v>150</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G10" t="n">
         <v>2.12</v>
@@ -1759,16 +1759,16 @@
         <v>5.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.59</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N10" t="n">
         <v>2.68</v>
@@ -1780,28 +1780,28 @@
         <v>1.56</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="R10" t="n">
         <v>1.2</v>
       </c>
       <c r="S10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T10" t="n">
         <v>2.18</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V10" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="W10" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X10" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y10" t="n">
         <v>13</v>
@@ -1822,7 +1822,7 @@
         <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF10" t="n">
         <v>11</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="G11" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="H11" t="n">
         <v>6</v>
@@ -1894,52 +1894,52 @@
         <v>6.8</v>
       </c>
       <c r="J11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="R11" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="T11" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U11" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V11" t="n">
         <v>1.17</v>
       </c>
       <c r="W11" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Z11" t="n">
         <v>55</v>
@@ -1948,46 +1948,46 @@
         <v>200</v>
       </c>
       <c r="AB11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
         <v>24</v>
       </c>
       <c r="AE11" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG11" t="n">
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>75</v>
+        <v>990</v>
       </c>
       <c r="AJ11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL11" t="n">
         <v>30</v>
       </c>
       <c r="AM11" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
         <v>7.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,88 +667,88 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="G2" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="H2" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="I2" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
         <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="Q2" t="n">
         <v>2.28</v>
       </c>
       <c r="R2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T2" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="U2" t="n">
         <v>1.74</v>
       </c>
       <c r="V2" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="W2" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
         <v>11</v>
       </c>
       <c r="AE2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG2" t="n">
         <v>23</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>24</v>
       </c>
       <c r="AH2" t="n">
         <v>27</v>
@@ -757,28 +757,28 @@
         <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="AK2" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AL2" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AM2" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AO2" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Asia</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,96 +788,96 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:15:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>SSV Ulm</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7.8</v>
+        <v>1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.54</v>
+        <v>1.02</v>
       </c>
       <c r="I3" t="n">
-        <v>1.57</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.15</v>
+        <v>1.34</v>
       </c>
       <c r="O3" t="n">
-        <v>1.39</v>
+        <v>1.16</v>
       </c>
       <c r="P3" t="n">
-        <v>1.75</v>
+        <v>1.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.16</v>
+        <v>1.16</v>
       </c>
       <c r="R3" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>1.16</v>
       </c>
       <c r="T3" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -889,31 +889,31 @@
         <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>FIFA World Cup Qualifiers - Asia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>14:15:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>3.85</v>
+        <v>7.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.22</v>
+        <v>1.62</v>
       </c>
       <c r="I4" t="n">
-        <v>2.48</v>
+        <v>1.68</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
         <v>1.73</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.85</v>
+        <v>2.16</v>
       </c>
       <c r="U4" t="n">
-        <v>1.97</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>2.14</v>
       </c>
       <c r="W4" t="n">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="X4" t="n">
         <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA4" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.5</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AE4" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="AH4" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AK4" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AM4" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="AN4" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="AO4" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Racing de Ferrol</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.64</v>
+        <v>1.02</v>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>1.02</v>
       </c>
       <c r="I5" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>3.15</v>
+        <v>1.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.73</v>
+        <v>1.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.18</v>
+        <v>1.02</v>
       </c>
       <c r="R5" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>1.34</v>
       </c>
       <c r="T5" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.3</v>
+        <v>3.35</v>
       </c>
       <c r="G6" t="n">
-        <v>2.44</v>
+        <v>3.85</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>2.22</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>2.42</v>
       </c>
       <c r="J6" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>2.4</v>
+        <v>3.15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.62</v>
+        <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>1.47</v>
+        <v>1.73</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.88</v>
+        <v>2.12</v>
       </c>
       <c r="R6" t="n">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>6.2</v>
+        <v>3.95</v>
       </c>
       <c r="T6" t="n">
-        <v>2.26</v>
+        <v>1.85</v>
       </c>
       <c r="U6" t="n">
-        <v>1.69</v>
+        <v>1.97</v>
       </c>
       <c r="V6" t="n">
-        <v>1.32</v>
+        <v>1.7</v>
       </c>
       <c r="W6" t="n">
-        <v>1.69</v>
+        <v>1.35</v>
       </c>
       <c r="X6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y6" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.8</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AL6" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="G7" t="n">
-        <v>1.99</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="I7" t="n">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>1.53</v>
+        <v>1.76</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.62</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="S7" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="T7" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="U7" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="V7" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="X7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC7" t="n">
         <v>8.6</v>
       </c>
-      <c r="Y7" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AD7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM7" t="n">
         <v>200</v>
       </c>
-      <c r="AB7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>300</v>
-      </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="G8" t="n">
-        <v>2.56</v>
+        <v>2.32</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="L8" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2.82</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.38</v>
-      </c>
       <c r="R8" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.96</v>
+        <v>2.28</v>
       </c>
       <c r="U8" t="n">
-        <v>1.86</v>
+        <v>1.69</v>
       </c>
       <c r="V8" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="W8" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AJ8" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AM8" t="n">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="AN8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1598,81 +1598,81 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Operario PR</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="G9" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="H9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="N9" t="n">
-        <v>3.3</v>
+        <v>2.58</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.54</v>
       </c>
       <c r="P9" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>2.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>5.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.99</v>
+        <v>2.26</v>
       </c>
       <c r="U9" t="n">
-        <v>1.84</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="W9" t="n">
-        <v>2.26</v>
+        <v>1.97</v>
       </c>
       <c r="X9" t="n">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Z9" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
         <v>190</v>
@@ -1681,49 +1681,49 @@
         <v>7.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
         <v>24</v>
       </c>
       <c r="AE9" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18.5</v>
+        <v>27</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AM9" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Vila Nova</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.99</v>
+        <v>2.48</v>
       </c>
       <c r="G10" t="n">
-        <v>2.12</v>
+        <v>2.64</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>5.1</v>
+        <v>3.45</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="M10" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.68</v>
+        <v>2.92</v>
       </c>
       <c r="O10" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="P10" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="R10" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S10" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="T10" t="n">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="U10" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="V10" t="n">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.9</v>
+        <v>1.61</v>
       </c>
       <c r="X10" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
         <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA10" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH10" t="n">
         <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AJ10" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AK10" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="n">
         <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="AN10" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>US MLS</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,396 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>23:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Los Angeles FC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Toronto FC</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="G11" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="I11" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="J11" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>2.32</v>
+        <v>1.79</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>2.24</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.29</v>
       </c>
       <c r="S11" t="n">
-        <v>2.72</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>2.16</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W11" t="n">
-        <v>2.6</v>
+        <v>2.24</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Z11" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA11" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB11" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
         <v>24</v>
       </c>
       <c r="AE11" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>America MG</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="X12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>US MLS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23:30:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Toronto FC</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="X13" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB13" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AC13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG13" t="n">
         <v>10</v>
       </c>
-      <c r="AH11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>990</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>80</v>
+      <c r="AH13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="G2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="I2" t="n">
         <v>1.82</v>
@@ -682,49 +682,49 @@
         <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="P2" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="R2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S2" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="T2" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="U2" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="V2" t="n">
-        <v>1.96</v>
+        <v>2.18</v>
       </c>
       <c r="W2" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X2" t="n">
         <v>10</v>
       </c>
       <c r="Y2" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="Z2" t="n">
         <v>9.6</v>
@@ -733,13 +733,13 @@
         <v>19.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE2" t="n">
         <v>24</v>
@@ -748,10 +748,10 @@
         <v>44</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
         <v>55</v>
@@ -760,19 +760,19 @@
         <v>190</v>
       </c>
       <c r="AK2" t="n">
-        <v>120</v>
+        <v>960</v>
       </c>
       <c r="AL2" t="n">
-        <v>110</v>
+        <v>960</v>
       </c>
       <c r="AM2" t="n">
         <v>220</v>
       </c>
       <c r="AN2" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AO2" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
@@ -826,16 +826,16 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="O3" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
@@ -844,10 +844,10 @@
         <v>1.16</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
         <v>1.01</v>
@@ -937,70 +937,70 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="G4" t="n">
         <v>7.6</v>
       </c>
       <c r="H4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I4" t="n">
         <v>1.62</v>
       </c>
-      <c r="I4" t="n">
-        <v>1.68</v>
-      </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V4" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="W4" t="n">
         <v>1.14</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
         <v>19</v>
@@ -1009,22 +1009,22 @@
         <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI4" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ4" t="n">
         <v>250</v>
@@ -1042,7 +1042,7 @@
         <v>220</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="G5" t="n">
         <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="I5" t="n">
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
         <v>950</v>
@@ -1099,25 +1099,25 @@
         <v>1.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
         <v>1.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.02</v>
+        <v>1.3</v>
       </c>
       <c r="R5" t="n">
         <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V5" t="n">
         <v>1.01</v>
@@ -1216,7 +1216,7 @@
         <v>2.22</v>
       </c>
       <c r="I6" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J6" t="n">
         <v>3.15</v>
@@ -1255,7 +1255,7 @@
         <v>1.97</v>
       </c>
       <c r="V6" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W6" t="n">
         <v>1.35</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H7" t="n">
         <v>6.4</v>
       </c>
       <c r="I7" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L7" t="n">
         <v>1.5</v>
@@ -1366,13 +1366,13 @@
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P7" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q7" t="n">
         <v>2.2</v>
@@ -1381,7 +1381,7 @@
         <v>1.27</v>
       </c>
       <c r="S7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
         <v>2.14</v>
@@ -1393,19 +1393,19 @@
         <v>1.16</v>
       </c>
       <c r="W7" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="n">
         <v>55</v>
       </c>
       <c r="AA7" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AB7" t="n">
         <v>7</v>
@@ -1429,7 +1429,7 @@
         <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ7" t="n">
         <v>16</v>
@@ -1444,7 +1444,7 @@
         <v>200</v>
       </c>
       <c r="AN7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
         <v>190</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G8" t="n">
         <v>2.28</v>
       </c>
-      <c r="G8" t="n">
-        <v>2.32</v>
-      </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="J8" t="n">
         <v>3.05</v>
@@ -1498,52 +1498,52 @@
         <v>1.63</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N8" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P8" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
         <v>1.17</v>
       </c>
       <c r="S8" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="U8" t="n">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="V8" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="W8" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X8" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="AC8" t="n">
         <v>8.199999999999999</v>
@@ -1552,7 +1552,7 @@
         <v>22</v>
       </c>
       <c r="AE8" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AF8" t="n">
         <v>16</v>
@@ -1561,16 +1561,16 @@
         <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
         <v>130</v>
       </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AL8" t="n">
         <v>90</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="G9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="J9" t="n">
         <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
         <v>1.6</v>
@@ -1654,37 +1654,37 @@
         <v>5.3</v>
       </c>
       <c r="T9" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="V9" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W9" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="X9" t="n">
         <v>9</v>
       </c>
       <c r="Y9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AC9" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1696,25 +1696,25 @@
         <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
         <v>70</v>
       </c>
       <c r="AM9" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AN9" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1750,13 +1750,13 @@
         <v>2.48</v>
       </c>
       <c r="G10" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
         <v>3.15</v>
@@ -1771,7 +1771,7 @@
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="O10" t="n">
         <v>1.48</v>
@@ -1780,7 +1780,7 @@
         <v>1.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="R10" t="n">
         <v>1.22</v>
@@ -1789,7 +1789,7 @@
         <v>4.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
         <v>1.86</v>
@@ -1798,52 +1798,52 @@
         <v>1.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="X10" t="n">
         <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA10" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
         <v>85</v>
       </c>
       <c r="AJ10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK10" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
         <v>190</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H11" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="I11" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="J11" t="n">
         <v>3.8</v>
@@ -1909,7 +1909,7 @@
         <v>3.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
         <v>1.79</v>
@@ -1930,16 +1930,16 @@
         <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W11" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="X11" t="n">
         <v>12.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z11" t="n">
         <v>48</v>
@@ -1978,7 +1978,7 @@
         <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM11" t="n">
         <v>190</v>
@@ -2026,7 +2026,7 @@
         <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.2</v>
@@ -2041,28 +2041,28 @@
         <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="O12" t="n">
         <v>1.52</v>
       </c>
       <c r="P12" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="R12" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="T12" t="n">
         <v>2.18</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="V12" t="n">
         <v>1.25</v>
@@ -2071,7 +2071,7 @@
         <v>1.9</v>
       </c>
       <c r="X12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Y12" t="n">
         <v>13</v>
@@ -2092,7 +2092,7 @@
         <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
         <v>11</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.51</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.54</v>
       </c>
       <c r="H13" t="n">
         <v>6.8</v>
@@ -2164,7 +2164,7 @@
         <v>7.6</v>
       </c>
       <c r="J13" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
         <v>5.2</v>
@@ -2179,58 +2179,58 @@
         <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="R13" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S13" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="T13" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V13" t="n">
         <v>1.15</v>
       </c>
       <c r="W13" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="X13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z13" t="n">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="AA13" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AB13" t="n">
         <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AE13" t="n">
-        <v>95</v>
+        <v>960</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG13" t="n">
         <v>10</v>
@@ -2239,7 +2239,7 @@
         <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ13" t="n">
         <v>14.5</v>
@@ -2251,13 +2251,13 @@
         <v>32</v>
       </c>
       <c r="AM13" t="n">
-        <v>110</v>
+        <v>960</v>
       </c>
       <c r="AN13" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Slovakian 2 Liga</t>
+          <t>FIFA World Cup Qualifiers - Asia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Slavia TU Kosice</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MSK Povazska Bystrica</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.15</v>
+        <v>8.4</v>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2.14</v>
+        <v>2.54</v>
       </c>
       <c r="I2" t="n">
-        <v>2.24</v>
+        <v>2.58</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>2.02</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>2.06</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="P2" t="n">
         <v>1.04</v>
       </c>
-      <c r="N2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.44</v>
-      </c>
       <c r="Q2" t="n">
+        <v>21</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S2" t="n">
+        <v>110</v>
+      </c>
+      <c r="T2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.62</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W2" t="n">
-        <v>1.4</v>
+        <v>1.12</v>
       </c>
       <c r="X2" t="n">
-        <v>90</v>
+        <v>2.42</v>
       </c>
       <c r="Y2" t="n">
-        <v>20</v>
+        <v>3.65</v>
       </c>
       <c r="Z2" t="n">
-        <v>25</v>
+        <v>13.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>17.5</v>
+        <v>55</v>
       </c>
       <c r="AE2" t="n">
-        <v>50</v>
+        <v>330</v>
       </c>
       <c r="AF2" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="AH2" t="n">
-        <v>40</v>
+        <v>510</v>
       </c>
       <c r="AI2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>17.5</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Asia</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>SSV Ulm</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.4</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>5.7</v>
+        <v>2.02</v>
       </c>
       <c r="H3" t="n">
-        <v>1.89</v>
+        <v>5.1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.91</v>
+        <v>5.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.52</v>
+        <v>6</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.9</v>
+        <v>1.18</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.96</v>
       </c>
       <c r="S3" t="n">
-        <v>6.2</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.99</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
-        <v>1.16</v>
+        <v>1.98</v>
       </c>
       <c r="X3" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AA3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>26</v>
-      </c>
       <c r="AH3" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AJ3" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="AM3" t="n">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="AN3" t="n">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>FIFA World Cup Qualifiers - Asia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:15:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SSV Ulm</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.61</v>
+        <v>7.2</v>
       </c>
       <c r="G4" t="n">
-        <v>1.69</v>
+        <v>7.6</v>
       </c>
       <c r="H4" t="n">
-        <v>4.9</v>
+        <v>1.58</v>
       </c>
       <c r="I4" t="n">
-        <v>5.7</v>
+        <v>1.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="K4" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.26</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.74</v>
-      </c>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.52</v>
+        <v>2.36</v>
       </c>
       <c r="U4" t="n">
-        <v>2.34</v>
+        <v>1.68</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>2.44</v>
       </c>
       <c r="W4" t="n">
-        <v>2.44</v>
+        <v>1.13</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Asia</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:15:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Racing de Ferrol</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.2</v>
+        <v>3.1</v>
       </c>
       <c r="G5" t="n">
-        <v>7.2</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.61</v>
+        <v>2.22</v>
       </c>
       <c r="I5" t="n">
-        <v>1.65</v>
+        <v>2.62</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="S5" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.24</v>
+        <v>1.7</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>2.08</v>
       </c>
       <c r="V5" t="n">
-        <v>2.26</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>1.12</v>
+        <v>1.36</v>
       </c>
       <c r="X5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.800000000000001</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Racing de Ferrol</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="G6" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>2.28</v>
+        <v>1.86</v>
       </c>
       <c r="I6" t="n">
-        <v>2.68</v>
+        <v>1.89</v>
       </c>
       <c r="J6" t="n">
-        <v>2.94</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
         <v>1.46</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O6" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="P6" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="R6" t="n">
         <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="V6" t="n">
-        <v>1.59</v>
+        <v>2.12</v>
       </c>
       <c r="W6" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,33 +1328,33 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>1.74</v>
       </c>
       <c r="G7" t="n">
-        <v>5.4</v>
+        <v>1.75</v>
       </c>
       <c r="H7" t="n">
-        <v>1.83</v>
+        <v>6.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1.89</v>
+        <v>6.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
         <v>3.75</v>
@@ -1366,16 +1366,16 @@
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P7" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R7" t="n">
         <v>1.27</v>
@@ -1384,76 +1384,76 @@
         <v>4.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="U7" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="V7" t="n">
-        <v>2.12</v>
+        <v>1.18</v>
       </c>
       <c r="W7" t="n">
-        <v>1.23</v>
+        <v>2.32</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.4</v>
+        <v>17.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.5</v>
+        <v>50</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>960</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5</v>
+        <v>6.6</v>
       </c>
       <c r="AC7" t="n">
         <v>8.6</v>
       </c>
       <c r="AD7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG7" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>21</v>
       </c>
       <c r="AH7" t="n">
         <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="n">
         <v>170</v>
       </c>
       <c r="AN7" t="n">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
-        <v>1.72</v>
+        <v>2.24</v>
       </c>
       <c r="H8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S8" t="n">
         <v>6.4</v>
       </c>
-      <c r="I8" t="n">
+      <c r="T8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB8" t="n">
         <v>6.6</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="AC8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF8" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>120</v>
+        <v>430</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AK8" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AL8" t="n">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="AM8" t="n">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="AN8" t="n">
-        <v>13.5</v>
+        <v>36</v>
       </c>
       <c r="AO8" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1603,118 +1603,118 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Operario PR</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="G9" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="I9" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.63</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="O9" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="P9" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
       <c r="R9" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="S9" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="T9" t="n">
         <v>2.32</v>
       </c>
       <c r="U9" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="X9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC9" t="n">
         <v>8</v>
       </c>
-      <c r="Y9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>960</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AI9" t="n">
         <v>540</v>
       </c>
       <c r="AJ9" t="n">
-        <v>900</v>
+        <v>26</v>
       </c>
       <c r="AK9" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AL9" t="n">
-        <v>450</v>
+        <v>170</v>
       </c>
       <c r="AM9" t="n">
-        <v>300</v>
+        <v>960</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.98</v>
+        <v>2.58</v>
       </c>
       <c r="G10" t="n">
-        <v>2.02</v>
+        <v>2.6</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
         <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.62</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.98</v>
-      </c>
       <c r="X10" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>38</v>
+        <v>19.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF10" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>540</v>
+        <v>65</v>
       </c>
       <c r="AJ10" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>960</v>
+        <v>170</v>
       </c>
       <c r="AN10" t="n">
-        <v>600</v>
+        <v>46</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.5</v>
+        <v>1.81</v>
       </c>
       <c r="G11" t="n">
-        <v>2.58</v>
+        <v>1.85</v>
       </c>
       <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N11" t="n">
         <v>3.3</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.98</v>
-      </c>
       <c r="O11" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="P11" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="R11" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="T11" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.41</v>
+        <v>1.22</v>
       </c>
       <c r="W11" t="n">
-        <v>1.64</v>
+        <v>2.16</v>
       </c>
       <c r="X11" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="AB11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC11" t="n">
         <v>8.6</v>
       </c>
-      <c r="AC11" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AD11" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AJ11" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="AO11" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Volta Redonda</t>
+          <t>Vila Nova</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="G12" t="n">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="H12" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="I12" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>3.25</v>
+        <v>2.72</v>
       </c>
       <c r="O12" t="n">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="P12" t="n">
-        <v>1.76</v>
+        <v>1.59</v>
       </c>
       <c r="Q12" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T12" t="n">
         <v>2.28</v>
       </c>
-      <c r="R12" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.06</v>
-      </c>
       <c r="U12" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="V12" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>2.14</v>
+        <v>1.92</v>
       </c>
       <c r="X12" t="n">
-        <v>14.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AE12" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AJ12" t="n">
         <v>26</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AL12" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>US MLS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,260 +2138,125 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>23:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Vila Nova</t>
+          <t>Toronto FC</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.06</v>
+        <v>1.49</v>
       </c>
       <c r="G13" t="n">
-        <v>2.12</v>
+        <v>1.51</v>
       </c>
       <c r="H13" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="I13" t="n">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.35</v>
+        <v>5.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>2.72</v>
+        <v>5.1</v>
       </c>
       <c r="O13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.54</v>
       </c>
-      <c r="P13" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.2</v>
-      </c>
       <c r="S13" t="n">
-        <v>5.4</v>
+        <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>2.16</v>
+        <v>1.87</v>
       </c>
       <c r="U13" t="n">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="W13" t="n">
-        <v>1.89</v>
+        <v>2.96</v>
       </c>
       <c r="X13" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="Z13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL13" t="n">
         <v>32</v>
       </c>
-      <c r="AA13" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI13" t="n">
+      <c r="AM13" t="n">
         <v>120</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>240</v>
-      </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>US MLS</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>23:30:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Los Angeles FC</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Toronto FC</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W14" t="n">
-        <v>3</v>
-      </c>
-      <c r="X14" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AO14" t="n">
         <v>960</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Asia</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X2" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y2" t="n">
         <v>8.4</v>
       </c>
-      <c r="G2" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O2" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="Z2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA2" t="n">
         <v>21</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="AB2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>110</v>
       </c>
-      <c r="T2" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>330</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>160</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>510</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AO2" t="n">
-        <v>580</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SSV Ulm</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="G3" t="n">
-        <v>2.02</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="I3" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P3" t="n">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="Q3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.18</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.21</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.98</v>
+        <v>2.38</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AO3" t="n">
         <v>1000</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Asia</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7.2</v>
+        <v>2.4</v>
       </c>
       <c r="G4" t="n">
-        <v>7.6</v>
+        <v>2.44</v>
       </c>
       <c r="H4" t="n">
-        <v>1.58</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6</v>
+        <v>3.85</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="N4" t="n">
-        <v>3.1</v>
+        <v>2.48</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.34</v>
+        <v>2.96</v>
       </c>
       <c r="R4" t="n">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="S4" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="T4" t="n">
         <v>2.36</v>
       </c>
       <c r="U4" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>2.44</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>1.13</v>
+        <v>1.69</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.4</v>
+        <v>24</v>
       </c>
       <c r="AA4" t="n">
-        <v>13.5</v>
+        <v>90</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AJ4" t="n">
-        <v>370</v>
+        <v>36</v>
       </c>
       <c r="AK4" t="n">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="AM4" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="AN4" t="n">
-        <v>260</v>
+        <v>42</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Racing de Ferrol</t>
+          <t>Operario PR</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.1</v>
+        <v>2.02</v>
       </c>
       <c r="G5" t="n">
-        <v>3.8</v>
+        <v>2.08</v>
       </c>
       <c r="H5" t="n">
-        <v>2.22</v>
+        <v>4.7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.62</v>
+        <v>5.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>1.58</v>
       </c>
       <c r="P5" t="n">
-        <v>1.89</v>
+        <v>1.54</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.78</v>
       </c>
       <c r="R5" t="n">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="S5" t="n">
-        <v>3.7</v>
+        <v>5.9</v>
       </c>
       <c r="T5" t="n">
-        <v>1.7</v>
+        <v>2.32</v>
       </c>
       <c r="U5" t="n">
-        <v>2.08</v>
+        <v>1.68</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.24</v>
       </c>
       <c r="W5" t="n">
-        <v>1.36</v>
+        <v>1.92</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.7</v>
+        <v>2.46</v>
       </c>
       <c r="G6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S6" t="n">
         <v>5</v>
       </c>
-      <c r="H6" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="T6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.89</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.9</v>
-      </c>
       <c r="V6" t="n">
-        <v>2.12</v>
+        <v>1.39</v>
       </c>
       <c r="W6" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="AA6" t="n">
+        <v>970</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH6" t="n">
         <v>21</v>
       </c>
-      <c r="AB6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23</v>
-      </c>
       <c r="AI6" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AJ6" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AK6" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AL6" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>960</v>
+        <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AO6" t="n">
-        <v>16.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,39 +1328,39 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="G7" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="H7" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="I7" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
@@ -1378,76 +1378,76 @@
         <v>2.28</v>
       </c>
       <c r="R7" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T7" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="U7" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="V7" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="W7" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="n">
-        <v>960</v>
+        <v>150</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG7" t="n">
         <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL7" t="n">
         <v>46</v>
       </c>
       <c r="AM7" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO7" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Vila Nova</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="G8" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="O8" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="P8" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="S8" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="T8" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="U8" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="V8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="X8" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB8" t="n">
         <v>6.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG8" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>12</v>
       </c>
       <c r="AH8" t="n">
         <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>430</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AK8" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AL8" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AM8" t="n">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="AN8" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>US MLS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,666 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>23:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Toronto FC</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.02</v>
+        <v>1.52</v>
       </c>
       <c r="G9" t="n">
-        <v>2.06</v>
+        <v>1.53</v>
       </c>
       <c r="H9" t="n">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.63</v>
+        <v>1.34</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>2.62</v>
+        <v>4.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.58</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>1.54</v>
+        <v>2.34</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.78</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.19</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>5.9</v>
+        <v>2.84</v>
       </c>
       <c r="T9" t="n">
-        <v>2.32</v>
+        <v>1.86</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>1.94</v>
+        <v>2.88</v>
       </c>
       <c r="X9" t="n">
-        <v>8.4</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Z9" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AA9" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>540</v>
+        <v>85</v>
       </c>
       <c r="AJ9" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AK9" t="n">
-        <v>42</v>
+        <v>14.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>960</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Mirassol</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Fluminense</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X10" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Brazilian Serie B</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Avai</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="X11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Brazilian Serie B</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>America MG</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Vila Nova</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="X12" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>US MLS</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>23:30:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Los Angeles FC</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Toronto FC</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="X13" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>960</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.5</v>
+        <v>2.86</v>
       </c>
       <c r="G2" t="n">
-        <v>4.6</v>
+        <v>2.88</v>
       </c>
       <c r="H2" t="n">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.96</v>
+        <v>3.55</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>2.72</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>2.76</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>2.66</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>1.99</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.99</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>1.32</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.16</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="S2" t="n">
-        <v>4.1</v>
+        <v>10</v>
       </c>
       <c r="T2" t="n">
-        <v>1.93</v>
+        <v>2.66</v>
       </c>
       <c r="U2" t="n">
-        <v>1.99</v>
+        <v>1.48</v>
       </c>
       <c r="V2" t="n">
-        <v>2.04</v>
+        <v>1.39</v>
       </c>
       <c r="W2" t="n">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="X2" t="n">
-        <v>14</v>
+        <v>5.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>6.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>36</v>
+        <v>16.5</v>
       </c>
       <c r="AG2" t="n">
         <v>17</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="AI2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,54 +788,54 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Volta Redonda</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.72</v>
+        <v>1.32</v>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="H3" t="n">
-        <v>6.2</v>
+        <v>16</v>
       </c>
       <c r="I3" t="n">
-        <v>6.4</v>
+        <v>17.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>5.4</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.12</v>
+        <v>1.89</v>
       </c>
       <c r="R3" t="n">
         <v>1.32</v>
@@ -844,70 +844,70 @@
         <v>3.95</v>
       </c>
       <c r="T3" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="U3" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="V3" t="n">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="W3" t="n">
-        <v>2.38</v>
+        <v>4</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH3" t="n">
         <v>22</v>
       </c>
-      <c r="AE3" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>21</v>
-      </c>
       <c r="AI3" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="AN3" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Vila Nova</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.4</v>
+        <v>1.99</v>
       </c>
       <c r="G4" t="n">
-        <v>2.44</v>
+        <v>2.02</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="M4" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="P4" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.96</v>
+        <v>2.68</v>
       </c>
       <c r="R4" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="S4" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="T4" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.69</v>
+        <v>1.99</v>
       </c>
       <c r="X4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC4" t="n">
         <v>7.6</v>
       </c>
-      <c r="Y4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AD4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE4" t="n">
         <v>90</v>
       </c>
-      <c r="AB4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>70</v>
-      </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AN4" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AO4" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>US MLS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,666 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>23:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Toronto FC</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.02</v>
+        <v>1.48</v>
       </c>
       <c r="G5" t="n">
-        <v>2.08</v>
+        <v>1.49</v>
       </c>
       <c r="H5" t="n">
-        <v>4.7</v>
+        <v>7.4</v>
       </c>
       <c r="I5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
         <v>5.1</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.6</v>
-      </c>
       <c r="O5" t="n">
-        <v>1.58</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.54</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.19</v>
-      </c>
       <c r="S5" t="n">
-        <v>5.9</v>
+        <v>2.8</v>
       </c>
       <c r="T5" t="n">
-        <v>2.32</v>
+        <v>1.88</v>
       </c>
       <c r="U5" t="n">
-        <v>1.68</v>
+        <v>2.06</v>
       </c>
       <c r="V5" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="W5" t="n">
-        <v>1.92</v>
+        <v>3</v>
       </c>
       <c r="X5" t="n">
-        <v>8.199999999999999</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>13</v>
       </c>
-      <c r="Z5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>25</v>
-      </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>260</v>
+        <v>980</v>
       </c>
       <c r="AN5" t="n">
-        <v>26</v>
+        <v>6.2</v>
       </c>
       <c r="AO5" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Mirassol</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Fluminense</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X6" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>970</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Brazilian Serie B</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Avai</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Volta Redonda</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="X7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Brazilian Serie B</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>America MG</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Vila Nova</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="X8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>US MLS</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>23:30:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Los Angeles FC</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Toronto FC</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="X9" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>150</v>
+        <v>960</v>
       </c>
     </row>
   </sheetData>
